--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\MikoWorkspace\MikoProject\Purple\purple\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\repository\PurpleWebFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="3795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="removeFromCart" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>brand</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Item added to your cart</t>
   </si>
   <si>
-    <t>560085</t>
-  </si>
-  <si>
     <t>BRANDS</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>product</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>productBrand</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>Matte Liquid Lipstick with Vitamin C &amp; E For Upto 12 Hour Long Stay - Chirpy Cherry</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>data2</t>
   </si>
 </sst>
 </file>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,41 +455,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -500,10 +512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,76 +528,94 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>560085</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>560085</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
